--- a/LCA_full_data__short_compiled.xlsx
+++ b/LCA_full_data__short_compiled.xlsx
@@ -1,295 +1,301 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Main\plantery fisheries\FishPrint\FishPrintCode\FishPrint\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
-  <si>
-    <t xml:space="preserve">Species.scientific.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edible_portion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edible_portion_b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species.common.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Indo-Pacific swamp crab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Striped bass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellowtail_Seriola_Almaco jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmonids nei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red crayfish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freshwater prawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acipenseridae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sturgeons nei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anguilla spp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">River eels nei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anoplopoma fimbria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sablefish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chanos chanos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milkfish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarias batrachus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarias gariepinus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North African catfish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cynoscion spp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weakfishes nei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprinus carpio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common carp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dicentrarchus labrax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European seabass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epinephelus spp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grouper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gadus morhua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantic cod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labeo rohita and Catla Catla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Major carps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lates calcarifer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barramundi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Litopenaeus vannamei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whiteleg shrimp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L vannamei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrobrachium amazonicum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon river prawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrobrachium rosenbergii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giant river prawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrobrachium spp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">River prawns nei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mytilus edulis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue mussel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mytilus galloprovincialis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediterranean mussel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oncorhynchus kisutch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coho(=Silver) salmon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oncorhynchus mykiss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rainbow trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oncorhynchus tshawytscha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinook(=Spring=King) salmon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oreochromis niloticus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nile tilapia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tilapia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osteichthyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freshwater fishes nei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pangasianodon hypophthalmus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Striped catfish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pangasius hypophthalmus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pangasius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pangasius spp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pangas catfishes nei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penaeus monodon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giant tiger prawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asian Tiger shrimp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P. monodon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penaeus spp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penaeus shrimps nei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penaeus vannamei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rachycentron canadum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmo salar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantic salmon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmonidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salvelinus alpinus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arctic char</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sciaenops ocellatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red drum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scophthalmidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turbot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sparus aurata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilthead seabream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thunnus orientalis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bluefin tuna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thunnus thynnus</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
+  <si>
+    <t>Species.scientific.name</t>
+  </si>
+  <si>
+    <t>Edible_portion</t>
+  </si>
+  <si>
+    <t>Edible_portion_b</t>
+  </si>
+  <si>
+    <t>Species.common.name</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Indo-Pacific swamp crab</t>
+  </si>
+  <si>
+    <t>Striped bass</t>
+  </si>
+  <si>
+    <t>Yellowtail_Seriola_Almaco jack</t>
+  </si>
+  <si>
+    <t>Salmonids nei</t>
+  </si>
+  <si>
+    <t>Red crayfish</t>
+  </si>
+  <si>
+    <t>Freshwater prawn</t>
+  </si>
+  <si>
+    <t>Acipenseridae</t>
+  </si>
+  <si>
+    <t>Sturgeons nei</t>
+  </si>
+  <si>
+    <t>Anguilla spp</t>
+  </si>
+  <si>
+    <t>River eels nei</t>
+  </si>
+  <si>
+    <t>Anoplopoma fimbria</t>
+  </si>
+  <si>
+    <t>Sablefish</t>
+  </si>
+  <si>
+    <t>Chanos chanos</t>
+  </si>
+  <si>
+    <t>Milkfish</t>
+  </si>
+  <si>
+    <t>Clarias batrachus</t>
+  </si>
+  <si>
+    <t>Clarias</t>
+  </si>
+  <si>
+    <t>Clarias gariepinus</t>
+  </si>
+  <si>
+    <t>North African catfish</t>
+  </si>
+  <si>
+    <t>Cynoscion spp</t>
+  </si>
+  <si>
+    <t>Weakfishes nei</t>
+  </si>
+  <si>
+    <t>Cyprinus carpio</t>
+  </si>
+  <si>
+    <t>Common carp</t>
+  </si>
+  <si>
+    <t>Dicentrarchus labrax</t>
+  </si>
+  <si>
+    <t>European seabass</t>
+  </si>
+  <si>
+    <t>Epinephelus spp.</t>
+  </si>
+  <si>
+    <t>Grouper</t>
+  </si>
+  <si>
+    <t>Gadus morhua</t>
+  </si>
+  <si>
+    <t>Atlantic cod</t>
+  </si>
+  <si>
+    <t>Labeo rohita and Catla Catla</t>
+  </si>
+  <si>
+    <t>Major carps</t>
+  </si>
+  <si>
+    <t>Lates calcarifer</t>
+  </si>
+  <si>
+    <t>Barramundi</t>
+  </si>
+  <si>
+    <t>Litopenaeus vannamei</t>
+  </si>
+  <si>
+    <t>Whiteleg shrimp</t>
+  </si>
+  <si>
+    <t>L vannamei</t>
+  </si>
+  <si>
+    <t>Macrobrachium amazonicum</t>
+  </si>
+  <si>
+    <t>Amazon river prawn</t>
+  </si>
+  <si>
+    <t>Macrobrachium rosenbergii</t>
+  </si>
+  <si>
+    <t>Giant river prawn</t>
+  </si>
+  <si>
+    <t>Macrobrachium spp</t>
+  </si>
+  <si>
+    <t>River prawns nei</t>
+  </si>
+  <si>
+    <t>Mytilus edulis</t>
+  </si>
+  <si>
+    <t>Blue mussel</t>
+  </si>
+  <si>
+    <t>Mytilus galloprovincialis</t>
+  </si>
+  <si>
+    <t>Mediterranean mussel</t>
+  </si>
+  <si>
+    <t>Oncorhynchus kisutch</t>
+  </si>
+  <si>
+    <t>Coho(=Silver) salmon</t>
+  </si>
+  <si>
+    <t>Oncorhynchus mykiss</t>
+  </si>
+  <si>
+    <t>Rainbow trout</t>
+  </si>
+  <si>
+    <t>Oncorhynchus tshawytscha</t>
+  </si>
+  <si>
+    <t>Chinook(=Spring=King) salmon</t>
+  </si>
+  <si>
+    <t>Oreochromis niloticus</t>
+  </si>
+  <si>
+    <t>Nile tilapia</t>
+  </si>
+  <si>
+    <t>Tilapia</t>
+  </si>
+  <si>
+    <t>Osteichthyes</t>
+  </si>
+  <si>
+    <t>Freshwater fishes nei</t>
+  </si>
+  <si>
+    <t>Pangasianodon hypophthalmus</t>
+  </si>
+  <si>
+    <t>Striped catfish</t>
+  </si>
+  <si>
+    <t>Pangasius hypophthalmus</t>
+  </si>
+  <si>
+    <t>Pangasius</t>
+  </si>
+  <si>
+    <t>Pangasius spp</t>
+  </si>
+  <si>
+    <t>Pangas catfishes nei</t>
+  </si>
+  <si>
+    <t>Penaeus monodon</t>
+  </si>
+  <si>
+    <t>Giant tiger prawn</t>
+  </si>
+  <si>
+    <t>Asian Tiger shrimp</t>
+  </si>
+  <si>
+    <t>P. monodon</t>
+  </si>
+  <si>
+    <t>Penaeus spp</t>
+  </si>
+  <si>
+    <t>Penaeus shrimps nei</t>
+  </si>
+  <si>
+    <t>Penaeus vannamei</t>
+  </si>
+  <si>
+    <t>Rachycentron canadum</t>
+  </si>
+  <si>
+    <t>Cobia</t>
+  </si>
+  <si>
+    <t>Salmo salar</t>
+  </si>
+  <si>
+    <t>Atlantic salmon</t>
+  </si>
+  <si>
+    <t>Salmonidae</t>
+  </si>
+  <si>
+    <t>Salvelinus alpinus</t>
+  </si>
+  <si>
+    <t>Arctic char</t>
+  </si>
+  <si>
+    <t>Sciaenops ocellatus</t>
+  </si>
+  <si>
+    <t>Red drum</t>
+  </si>
+  <si>
+    <t>Scophthalmidae</t>
+  </si>
+  <si>
+    <t>Turbot</t>
+  </si>
+  <si>
+    <t>Sparus aurata</t>
+  </si>
+  <si>
+    <t>Gilthead seabream</t>
+  </si>
+  <si>
+    <t>Thunnus orientalis</t>
+  </si>
+  <si>
+    <t>Bluefin tuna</t>
+  </si>
+  <si>
+    <t>Thunnus thynnus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -325,6 +331,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -606,543 +621,463 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10"/>
-      <c r="C10" t="n">
-        <v>0.61175</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="D10">
+        <v>0.61175000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13" t="s">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="n">
-        <v>0.485</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="C15">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16" t="s">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B18"/>
-      <c r="C18" t="n">
-        <v>0.50025</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="D18">
+        <v>0.50024999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19" t="s">
+      <c r="B19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
         <v>0.5</v>
       </c>
-      <c r="C20"/>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21" t="s">
+      <c r="B21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22" t="s">
+      <c r="B22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23" t="s">
+      <c r="B23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24" t="s">
+      <c r="B24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>44</v>
       </c>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25" t="s">
+      <c r="B25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="B26"/>
-      <c r="C26" t="n">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26">
         <v>0.26</v>
       </c>
-      <c r="D26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>48</v>
       </c>
-      <c r="B27"/>
-      <c r="C27" t="n">
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27">
         <v>0.25</v>
       </c>
-      <c r="D27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>50</v>
       </c>
-      <c r="B28"/>
-      <c r="C28" t="n">
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28">
         <v>0.62</v>
       </c>
-      <c r="D28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>52</v>
       </c>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29" t="s">
+      <c r="B29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>54</v>
       </c>
-      <c r="B30"/>
-      <c r="C30" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B30" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31">
+      <c r="D30">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>56</v>
       </c>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31" t="s">
+      <c r="B31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>56</v>
       </c>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32" t="s">
+      <c r="B32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>59</v>
       </c>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33" t="s">
+      <c r="B33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>61</v>
       </c>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34" t="s">
+      <c r="B34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>63</v>
       </c>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35" t="s">
+      <c r="B35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>65</v>
       </c>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36" t="s">
+      <c r="B36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>67</v>
       </c>
-      <c r="B37"/>
-      <c r="C37" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B37" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38">
+      <c r="D37">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>67</v>
       </c>
-      <c r="B38"/>
-      <c r="C38" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="B38" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39">
+      <c r="D38">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>67</v>
       </c>
-      <c r="B39"/>
-      <c r="C39" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B39" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="40">
+      <c r="D39">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>71</v>
       </c>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40" t="s">
+      <c r="B40" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>73</v>
       </c>
-      <c r="B41"/>
-      <c r="C41" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="B41" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42">
+      <c r="D41">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>74</v>
       </c>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42" t="s">
+      <c r="B42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>76</v>
       </c>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43" t="s">
+      <c r="B43" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>78</v>
       </c>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44" t="s">
+      <c r="B44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>79</v>
       </c>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45" t="s">
+      <c r="B45" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>81</v>
       </c>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46" t="s">
+      <c r="B46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>83</v>
       </c>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47" t="s">
+      <c r="B47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>85</v>
       </c>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48" t="s">
+      <c r="B48" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>87</v>
       </c>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49" t="s">
+      <c r="B49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>89</v>
       </c>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50" t="s">
+      <c r="B50" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>